--- a/generated_tables/io_d_sub_sd_stamped_formed_right_angle_board_patterns.xlsx
+++ b/generated_tables/io_d_sub_sd_stamped_formed_right_angle_board_patterns.xlsx
@@ -19,25 +19,25 @@
     <t>PART NUMBER</t>
   </si>
   <si>
-    <t>ROHS_COMPLIANT</t>
+    <t>ROHS COMPLIANT</t>
   </si>
   <si>
-    <t>SHELL_SIZE</t>
+    <t>SHELL SIZE</t>
   </si>
   <si>
     <t>CONFIGURATION</t>
   </si>
   <si>
-    <t>CONTACT_TYPE</t>
+    <t>CONTACT TYPE</t>
   </si>
   <si>
     <t>FOOTPRINT</t>
   </si>
   <si>
-    <t>MOUNTING_OPTIONS</t>
+    <t>MOUNTING OPTIONS</t>
   </si>
   <si>
-    <t>PLATING_OPTION</t>
+    <t>PLATING OPTION</t>
   </si>
   <si>
     <t>LASDACHAC309</t>
